--- a/Code/Results/Cases/Case_1_244/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_244/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9596212687067833</v>
+        <v>1.016781629710088</v>
       </c>
       <c r="D2">
-        <v>1.038719305979817</v>
+        <v>1.04640570893408</v>
       </c>
       <c r="E2">
-        <v>0.9713376255573748</v>
+        <v>1.0182291542689</v>
       </c>
       <c r="F2">
-        <v>1.028947885653733</v>
+        <v>1.050219672561107</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056933567080615</v>
+        <v>1.039878594663416</v>
       </c>
       <c r="J2">
-        <v>0.9830806291856632</v>
+        <v>1.021999482056776</v>
       </c>
       <c r="K2">
-        <v>1.049664339781325</v>
+        <v>1.049171235683644</v>
       </c>
       <c r="L2">
-        <v>0.9832112618797348</v>
+        <v>1.02107599100649</v>
       </c>
       <c r="M2">
-        <v>1.040018139988729</v>
+        <v>1.052974556895496</v>
       </c>
       <c r="N2">
-        <v>0.9977664711212594</v>
+        <v>1.011315331217632</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9671482651532516</v>
+        <v>1.018273729989685</v>
       </c>
       <c r="D3">
-        <v>1.042437593043967</v>
+        <v>1.047100559540913</v>
       </c>
       <c r="E3">
-        <v>0.9775329733034546</v>
+        <v>1.019510530630493</v>
       </c>
       <c r="F3">
-        <v>1.033968087095198</v>
+        <v>1.05119956134051</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058477268123615</v>
+        <v>1.040064036485619</v>
       </c>
       <c r="J3">
-        <v>0.9885764076332655</v>
+        <v>1.023124330810712</v>
       </c>
       <c r="K3">
-        <v>1.0525548120381</v>
+        <v>1.049678025853052</v>
       </c>
       <c r="L3">
-        <v>0.9884616309204804</v>
+        <v>1.022161822076517</v>
       </c>
       <c r="M3">
-        <v>1.044184032428745</v>
+        <v>1.053766416524224</v>
       </c>
       <c r="N3">
-        <v>0.9996774838616928</v>
+        <v>1.011697610754436</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9718685667347754</v>
+        <v>1.019237761502197</v>
       </c>
       <c r="D4">
-        <v>1.044771807230953</v>
+        <v>1.047547989523303</v>
       </c>
       <c r="E4">
-        <v>0.9814261144333528</v>
+        <v>1.020338709891954</v>
       </c>
       <c r="F4">
-        <v>1.037120182869145</v>
+        <v>1.051831198254204</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059429183589375</v>
+        <v>1.040181279457985</v>
       </c>
       <c r="J4">
-        <v>0.9920203183085827</v>
+        <v>1.023850410904467</v>
       </c>
       <c r="K4">
-        <v>1.054358313552162</v>
+        <v>1.050003097092457</v>
       </c>
       <c r="L4">
-        <v>0.9917540024590942</v>
+        <v>1.022862936438564</v>
       </c>
       <c r="M4">
-        <v>1.04679032742176</v>
+        <v>1.054275775879018</v>
       </c>
       <c r="N4">
-        <v>1.000873681887974</v>
+        <v>1.011944086716067</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9738191097633554</v>
+        <v>1.019642698901204</v>
       </c>
       <c r="D5">
-        <v>1.045736560420748</v>
+        <v>1.047735565734536</v>
       </c>
       <c r="E5">
-        <v>0.9830366410001731</v>
+        <v>1.020686652641428</v>
       </c>
       <c r="F5">
-        <v>1.038423230525678</v>
+        <v>1.052096160871901</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05981845546045</v>
+        <v>1.040229909726947</v>
       </c>
       <c r="J5">
-        <v>0.9934427147578623</v>
+        <v>1.024155235782094</v>
       </c>
       <c r="K5">
-        <v>1.055101062217711</v>
+        <v>1.050139073206841</v>
       </c>
       <c r="L5">
-        <v>0.9931143411143007</v>
+        <v>1.023157332763208</v>
       </c>
       <c r="M5">
-        <v>1.047865480045941</v>
+        <v>1.054489186778733</v>
       </c>
       <c r="N5">
-        <v>1.001367394730073</v>
+        <v>1.012047495136177</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9741446853447386</v>
+        <v>1.019710669863488</v>
       </c>
       <c r="D6">
-        <v>1.045897593635766</v>
+        <v>1.047767029906365</v>
       </c>
       <c r="E6">
-        <v>0.9833055644058287</v>
+        <v>1.020745060788263</v>
       </c>
       <c r="F6">
-        <v>1.038640749001516</v>
+        <v>1.052140615422295</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05988318504206</v>
+        <v>1.040238036330069</v>
       </c>
       <c r="J6">
-        <v>0.9936800902017208</v>
+        <v>1.024206392785732</v>
       </c>
       <c r="K6">
-        <v>1.055224882708627</v>
+        <v>1.050161864089723</v>
       </c>
       <c r="L6">
-        <v>0.9933413910826279</v>
+        <v>1.023206742689343</v>
       </c>
       <c r="M6">
-        <v>1.048044822202614</v>
+        <v>1.05452497698887</v>
       </c>
       <c r="N6">
-        <v>1.001449767160352</v>
+        <v>1.012064845594266</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9718947604650978</v>
+        <v>1.019243173628108</v>
       </c>
       <c r="D7">
-        <v>1.044784762542823</v>
+        <v>1.047550497982761</v>
       </c>
       <c r="E7">
-        <v>0.9814477351800711</v>
+        <v>1.020343359992948</v>
       </c>
       <c r="F7">
-        <v>1.037137679848351</v>
+        <v>1.051834740965928</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05943442752418</v>
+        <v>1.04018193184657</v>
       </c>
       <c r="J7">
-        <v>0.9920394225199123</v>
+        <v>1.023854485630316</v>
       </c>
       <c r="K7">
-        <v>1.054368298175058</v>
+        <v>1.050004916699258</v>
       </c>
       <c r="L7">
-        <v>0.9917722710812116</v>
+        <v>1.022866871554523</v>
       </c>
       <c r="M7">
-        <v>1.046804773274373</v>
+        <v>1.054278630328966</v>
       </c>
       <c r="N7">
-        <v>1.000880314310309</v>
+        <v>1.011945469287842</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9621974569980968</v>
+        <v>1.017286198161456</v>
       </c>
       <c r="D8">
-        <v>1.039991173565575</v>
+        <v>1.046640989165053</v>
       </c>
       <c r="E8">
-        <v>0.973456291235687</v>
+        <v>1.018662402736702</v>
       </c>
       <c r="F8">
-        <v>1.030665032752475</v>
+        <v>1.05055133157019</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057465198964449</v>
+        <v>1.039941834917569</v>
       </c>
       <c r="J8">
-        <v>0.9849620999250626</v>
+        <v>1.0223799999954</v>
       </c>
       <c r="K8">
-        <v>1.050655374086347</v>
+        <v>1.049343099061025</v>
       </c>
       <c r="L8">
-        <v>0.9850082370072025</v>
+        <v>1.021443264300943</v>
       </c>
       <c r="M8">
-        <v>1.041445049521689</v>
+        <v>1.053242796802427</v>
       </c>
       <c r="N8">
-        <v>0.9984209727362953</v>
+        <v>1.011444708518428</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9438552215439631</v>
+        <v>1.013826264588717</v>
       </c>
       <c r="D9">
-        <v>1.030963483641973</v>
+        <v>1.045021595611019</v>
       </c>
       <c r="E9">
-        <v>0.9584115489008725</v>
+        <v>1.015692774431264</v>
       </c>
       <c r="F9">
-        <v>1.018474071672889</v>
+        <v>1.048271242920713</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053619148037579</v>
+        <v>1.039497698904769</v>
       </c>
       <c r="J9">
-        <v>0.9715592274669221</v>
+        <v>1.019767964847435</v>
       </c>
       <c r="K9">
-        <v>1.04357340917287</v>
+        <v>1.048155021936845</v>
       </c>
       <c r="L9">
-        <v>0.9722174442550733</v>
+        <v>1.018923051867951</v>
       </c>
       <c r="M9">
-        <v>1.031274365578885</v>
+        <v>1.051394303177267</v>
       </c>
       <c r="N9">
-        <v>0.9937536187644416</v>
+        <v>1.010555454847119</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9306179948289005</v>
+        <v>1.011511446996195</v>
       </c>
       <c r="D10">
-        <v>1.024506024365776</v>
+        <v>1.04393076380479</v>
       </c>
       <c r="E10">
-        <v>0.9476125511070055</v>
+        <v>1.013707599035333</v>
       </c>
       <c r="F10">
-        <v>1.009744102489613</v>
+        <v>1.046738631390412</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050776709416418</v>
+        <v>1.039187461266105</v>
       </c>
       <c r="J10">
-        <v>0.9618830595037685</v>
+        <v>1.018017003495174</v>
       </c>
       <c r="K10">
-        <v>1.038446476471578</v>
+        <v>1.047348263961936</v>
       </c>
       <c r="L10">
-        <v>0.9629967977392212</v>
+        <v>1.017234783392103</v>
       </c>
       <c r="M10">
-        <v>1.023939625012541</v>
+        <v>1.050146295806834</v>
       </c>
       <c r="N10">
-        <v>0.9903787274300013</v>
+        <v>1.009957907501216</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9246026975785657</v>
+        <v>1.01050705665331</v>
       </c>
       <c r="D11">
-        <v>1.021593197655249</v>
+        <v>1.043455756055927</v>
       </c>
       <c r="E11">
-        <v>0.9427217922118243</v>
+        <v>1.012846634293134</v>
       </c>
       <c r="F11">
-        <v>1.005801564047245</v>
+        <v>1.04607199735782</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049473213222063</v>
+        <v>1.039049770195881</v>
       </c>
       <c r="J11">
-        <v>0.957487095699772</v>
+        <v>1.01725646676491</v>
       </c>
       <c r="K11">
-        <v>1.036119071934349</v>
+        <v>1.046995438176097</v>
       </c>
       <c r="L11">
-        <v>0.9588112458485545</v>
+        <v>1.016501748339656</v>
       </c>
       <c r="M11">
-        <v>1.020614894480156</v>
+        <v>1.049602159592727</v>
       </c>
       <c r="N11">
-        <v>0.9888445908883642</v>
+        <v>1.009698021301186</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9223213455278393</v>
+        <v>1.010133662872713</v>
       </c>
       <c r="D12">
-        <v>1.020492485308181</v>
+        <v>1.043278915581638</v>
       </c>
       <c r="E12">
-        <v>0.940869677127547</v>
+        <v>1.012526621115517</v>
       </c>
       <c r="F12">
-        <v>1.00431082445625</v>
+        <v>1.045823926742409</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048977461841129</v>
+        <v>1.03899812130388</v>
       </c>
       <c r="J12">
-        <v>0.9558202467965405</v>
+        <v>1.016973608760918</v>
       </c>
       <c r="K12">
-        <v>1.035237338013232</v>
+        <v>1.046863857584019</v>
       </c>
       <c r="L12">
-        <v>0.9572247236941077</v>
+        <v>1.016229159449954</v>
       </c>
       <c r="M12">
-        <v>1.019355899278618</v>
+        <v>1.04939947951286</v>
       </c>
       <c r="N12">
-        <v>0.9882627816923509</v>
+        <v>1.009601313963183</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9228129081192248</v>
+        <v>1.010213771665905</v>
       </c>
       <c r="D13">
-        <v>1.02072946204534</v>
+        <v>1.043316866634549</v>
       </c>
       <c r="E13">
-        <v>0.9412686236716383</v>
+        <v>1.012595274752927</v>
       </c>
       <c r="F13">
-        <v>1.004631816798747</v>
+        <v>1.045877159263782</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04908433735372</v>
+        <v>1.039009222988632</v>
       </c>
       <c r="J13">
-        <v>0.9561793830498646</v>
+        <v>1.017034299193293</v>
       </c>
       <c r="K13">
-        <v>1.035427271827038</v>
+        <v>1.046892105849604</v>
       </c>
       <c r="L13">
-        <v>0.9575665279720924</v>
+        <v>1.016287644683016</v>
       </c>
       <c r="M13">
-        <v>1.019627075627872</v>
+        <v>1.049442980612042</v>
       </c>
       <c r="N13">
-        <v>0.9883881411538309</v>
+        <v>1.009622065925039</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9244151069445451</v>
+        <v>1.010476198357099</v>
       </c>
       <c r="D14">
-        <v>1.021502602725049</v>
+        <v>1.043441146558191</v>
       </c>
       <c r="E14">
-        <v>0.9425694395435668</v>
+        <v>1.012820186278186</v>
       </c>
       <c r="F14">
-        <v>1.005678887554911</v>
+        <v>1.046051501016558</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049432474445383</v>
+        <v>1.039045511170438</v>
       </c>
       <c r="J14">
-        <v>0.9573500259065064</v>
+        <v>1.017233093031504</v>
       </c>
       <c r="K14">
-        <v>1.036046545890688</v>
+        <v>1.04698457240358</v>
       </c>
       <c r="L14">
-        <v>0.9586807704004505</v>
+        <v>1.016479222355317</v>
       </c>
       <c r="M14">
-        <v>1.020511326588827</v>
+        <v>1.049585417502412</v>
       </c>
       <c r="N14">
-        <v>0.9887967488483588</v>
+        <v>1.009690031004996</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9253959033740898</v>
+        <v>1.01063784562542</v>
       </c>
       <c r="D15">
-        <v>1.021976435286591</v>
+        <v>1.0435176663169</v>
       </c>
       <c r="E15">
-        <v>0.9433661113968321</v>
+        <v>1.012958733329901</v>
       </c>
       <c r="F15">
-        <v>1.006320475569295</v>
+        <v>1.046158858633459</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049645418517645</v>
+        <v>1.039067802689712</v>
       </c>
       <c r="J15">
-        <v>0.9580666955333296</v>
+        <v>1.017355528474307</v>
       </c>
       <c r="K15">
-        <v>1.036425782540882</v>
+        <v>1.047041474467393</v>
       </c>
       <c r="L15">
-        <v>0.9593629836943569</v>
+        <v>1.016597218816628</v>
       </c>
       <c r="M15">
-        <v>1.021052902504001</v>
+        <v>1.049673102830412</v>
       </c>
       <c r="N15">
-        <v>0.989046887194727</v>
+        <v>1.009731883409186</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.931010875091033</v>
+        <v>1.011578060915385</v>
       </c>
       <c r="D16">
-        <v>1.024696779011569</v>
+        <v>1.043962232222477</v>
       </c>
       <c r="E16">
-        <v>0.9479323467581938</v>
+        <v>1.01376470898827</v>
       </c>
       <c r="F16">
-        <v>1.01000217683142</v>
+        <v>1.046782810265198</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050861632571523</v>
+        <v>1.039196528653276</v>
       </c>
       <c r="J16">
-        <v>0.9621702137497807</v>
+        <v>1.018067427568801</v>
       </c>
       <c r="K16">
-        <v>1.038598585235923</v>
+        <v>1.047371606193176</v>
       </c>
       <c r="L16">
-        <v>0.9632702808291748</v>
+        <v>1.017283389788193</v>
       </c>
       <c r="M16">
-        <v>1.024157002789437</v>
+        <v>1.050182329381635</v>
       </c>
       <c r="N16">
-        <v>0.9904789250194788</v>
+        <v>1.009975131003732</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9344541772694284</v>
+        <v>1.012167275433644</v>
       </c>
       <c r="D17">
-        <v>1.026371114016314</v>
+        <v>1.044240381570786</v>
       </c>
       <c r="E17">
-        <v>0.9507370079411561</v>
+        <v>1.014269904605783</v>
       </c>
       <c r="F17">
-        <v>1.012266858217665</v>
+        <v>1.047173393317201</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051604631432116</v>
+        <v>1.039276376473276</v>
       </c>
       <c r="J17">
-        <v>0.9646870514506168</v>
+        <v>1.018513347016154</v>
       </c>
       <c r="K17">
-        <v>1.039932038819894</v>
+        <v>1.047577753313696</v>
       </c>
       <c r="L17">
-        <v>0.9656676866412273</v>
+        <v>1.017713266050916</v>
       </c>
       <c r="M17">
-        <v>1.026063170035703</v>
+        <v>1.05050075108138</v>
       </c>
       <c r="N17">
-        <v>0.9913570357320211</v>
+        <v>1.010127405952957</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9364355735867115</v>
+        <v>1.012510756246865</v>
       </c>
       <c r="D18">
-        <v>1.02733655521767</v>
+        <v>1.044402363748355</v>
       </c>
       <c r="E18">
-        <v>0.9523524407333741</v>
+        <v>1.014564444860141</v>
       </c>
       <c r="F18">
-        <v>1.013572279598171</v>
+        <v>1.047400924176416</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052031043556014</v>
+        <v>1.039322626546065</v>
       </c>
       <c r="J18">
-        <v>0.966135418077852</v>
+        <v>1.018773217121003</v>
       </c>
       <c r="K18">
-        <v>1.040699537113087</v>
+        <v>1.047697658327908</v>
       </c>
       <c r="L18">
-        <v>0.9670476468258846</v>
+        <v>1.017963812686997</v>
       </c>
       <c r="M18">
-        <v>1.027160779290892</v>
+        <v>1.050686120256254</v>
       </c>
       <c r="N18">
-        <v>0.9918622764823809</v>
+        <v>1.010216115095047</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9371067188054717</v>
+        <v>1.012627841010677</v>
       </c>
       <c r="D19">
-        <v>1.027663885917844</v>
+        <v>1.044457551792439</v>
       </c>
       <c r="E19">
-        <v>0.9528998784303995</v>
+        <v>1.014664853317975</v>
       </c>
       <c r="F19">
-        <v>1.014014814624905</v>
+        <v>1.047478457248658</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052175275942578</v>
+        <v>1.039338341703526</v>
       </c>
       <c r="J19">
-        <v>0.9666260237500215</v>
+        <v>1.018861787772465</v>
       </c>
       <c r="K19">
-        <v>1.040959521177093</v>
+        <v>1.047738485670091</v>
       </c>
       <c r="L19">
-        <v>0.9675151353549361</v>
+        <v>1.018049210073996</v>
       </c>
       <c r="M19">
-        <v>1.02753267077159</v>
+        <v>1.050749265202418</v>
       </c>
       <c r="N19">
-        <v>0.9920334012232477</v>
+        <v>1.010246343981831</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9340875685920921</v>
+        <v>1.012104078843182</v>
       </c>
       <c r="D20">
-        <v>1.026192637474263</v>
+        <v>1.044210565428016</v>
       </c>
       <c r="E20">
-        <v>0.9504382343245704</v>
+        <v>1.01421571557795</v>
       </c>
       <c r="F20">
-        <v>1.012025498583453</v>
+        <v>1.047131517423245</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051525639725992</v>
+        <v>1.039267843051606</v>
       </c>
       <c r="J20">
-        <v>0.9644190728606791</v>
+        <v>1.018465527622654</v>
       </c>
       <c r="K20">
-        <v>1.039790042934358</v>
+        <v>1.047555670550883</v>
       </c>
       <c r="L20">
-        <v>0.9654123907346827</v>
+        <v>1.017667164393868</v>
       </c>
       <c r="M20">
-        <v>1.025860139344296</v>
+        <v>1.050466624779354</v>
       </c>
       <c r="N20">
-        <v>0.9912635482304345</v>
+        <v>1.010111079712053</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9239446354766565</v>
+        <v>1.010398929102922</v>
       </c>
       <c r="D21">
-        <v>1.021275460496774</v>
+        <v>1.04340456030244</v>
       </c>
       <c r="E21">
-        <v>0.9421873888737637</v>
+        <v>1.012753961360213</v>
       </c>
       <c r="F21">
-        <v>1.005371293997094</v>
+        <v>1.046000174237528</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049330281921492</v>
+        <v>1.039034839127213</v>
       </c>
       <c r="J21">
-        <v>0.9570062655672074</v>
+        <v>1.017174563212489</v>
       </c>
       <c r="K21">
-        <v>1.035864670297066</v>
+        <v>1.046957357814865</v>
       </c>
       <c r="L21">
-        <v>0.9583535569807473</v>
+        <v>1.016422816029889</v>
       </c>
       <c r="M21">
-        <v>1.020251615128022</v>
+        <v>1.049543488961737</v>
       </c>
       <c r="N21">
-        <v>0.9886767632693172</v>
+        <v>1.009670021804197</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.91729274763744</v>
+        <v>1.009324986534748</v>
       </c>
       <c r="D22">
-        <v>1.0180745812013</v>
+        <v>1.042895470081477</v>
       </c>
       <c r="E22">
-        <v>0.9367926006692573</v>
+        <v>1.01183366547138</v>
       </c>
       <c r="F22">
-        <v>1.001034206555845</v>
+        <v>1.045286231673529</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047882618950748</v>
+        <v>1.038885422540334</v>
       </c>
       <c r="J22">
-        <v>0.9521470411210632</v>
+        <v>1.016360791960544</v>
       </c>
       <c r="K22">
-        <v>1.033296284036895</v>
+        <v>1.04657813489223</v>
       </c>
       <c r="L22">
-        <v>0.9537295644278052</v>
+        <v>1.01563866541253</v>
       </c>
       <c r="M22">
-        <v>1.016585203415574</v>
+        <v>1.048959814796082</v>
       </c>
       <c r="N22">
-        <v>0.9869805166714817</v>
+        <v>1.009391703231763</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9208467182900635</v>
+        <v>1.009894481978082</v>
       </c>
       <c r="D23">
-        <v>1.019782234037825</v>
+        <v>1.043165568712072</v>
       </c>
       <c r="E23">
-        <v>0.9396733111064146</v>
+        <v>1.012321650829092</v>
       </c>
       <c r="F23">
-        <v>1.003348614670257</v>
+        <v>1.045664955328275</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048656676955619</v>
+        <v>1.038964907704483</v>
       </c>
       <c r="J23">
-        <v>0.9547429506996025</v>
+        <v>1.016792387823412</v>
       </c>
       <c r="K23">
-        <v>1.03466774928783</v>
+        <v>1.046779456441268</v>
       </c>
       <c r="L23">
-        <v>0.9561994996986651</v>
+        <v>1.016054529178212</v>
       </c>
       <c r="M23">
-        <v>1.018542744558388</v>
+        <v>1.049269541284565</v>
       </c>
       <c r="N23">
-        <v>0.987886730896909</v>
+        <v>1.009539341429055</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9342533064576383</v>
+        <v>1.012132635274322</v>
       </c>
       <c r="D24">
-        <v>1.026273317769872</v>
+        <v>1.044224038856053</v>
       </c>
       <c r="E24">
-        <v>0.9505733003091726</v>
+        <v>1.014240201674623</v>
       </c>
       <c r="F24">
-        <v>1.0121346064615</v>
+        <v>1.047150440232652</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051561354158304</v>
+        <v>1.039271699938314</v>
       </c>
       <c r="J24">
-        <v>0.964540221388923</v>
+        <v>1.018487135850375</v>
       </c>
       <c r="K24">
-        <v>1.039854236458461</v>
+        <v>1.047565649842901</v>
       </c>
       <c r="L24">
-        <v>0.9655278046365381</v>
+        <v>1.017687996344593</v>
       </c>
       <c r="M24">
-        <v>1.025951924011346</v>
+        <v>1.050482046101649</v>
       </c>
       <c r="N24">
-        <v>0.9913058125986886</v>
+        <v>1.010118457178355</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9487615973111683</v>
+        <v>1.014722150259201</v>
       </c>
       <c r="D25">
-        <v>1.033370866524851</v>
+        <v>1.045442228449873</v>
       </c>
       <c r="E25">
-        <v>0.9624267304887577</v>
+        <v>1.016461425609722</v>
       </c>
       <c r="F25">
-        <v>1.021725983353336</v>
+        <v>1.048862907176831</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054660469465496</v>
+        <v>1.039615012749204</v>
       </c>
       <c r="J25">
-        <v>0.9751455525687573</v>
+        <v>1.020444907460198</v>
       </c>
       <c r="K25">
-        <v>1.045472323773623</v>
+        <v>1.048464760119307</v>
       </c>
       <c r="L25">
-        <v>0.9756377421475056</v>
+        <v>1.01957599711152</v>
       </c>
       <c r="M25">
-        <v>1.033996139821431</v>
+        <v>1.051874941526478</v>
       </c>
       <c r="N25">
-        <v>0.995003513383854</v>
+        <v>1.010786170805605</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_244/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_244/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016781629710088</v>
+        <v>0.9596212687067832</v>
       </c>
       <c r="D2">
-        <v>1.04640570893408</v>
+        <v>1.038719305979816</v>
       </c>
       <c r="E2">
-        <v>1.0182291542689</v>
+        <v>0.9713376255573745</v>
       </c>
       <c r="F2">
-        <v>1.050219672561107</v>
+        <v>1.028947885653732</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039878594663416</v>
+        <v>1.056933567080615</v>
       </c>
       <c r="J2">
-        <v>1.021999482056776</v>
+        <v>0.983080629185663</v>
       </c>
       <c r="K2">
-        <v>1.049171235683644</v>
+        <v>1.049664339781324</v>
       </c>
       <c r="L2">
-        <v>1.02107599100649</v>
+        <v>0.9832112618797345</v>
       </c>
       <c r="M2">
-        <v>1.052974556895496</v>
+        <v>1.040018139988729</v>
       </c>
       <c r="N2">
-        <v>1.011315331217632</v>
+        <v>0.9977664711212595</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018273729989685</v>
+        <v>0.9671482651532524</v>
       </c>
       <c r="D3">
-        <v>1.047100559540913</v>
+        <v>1.042437593043968</v>
       </c>
       <c r="E3">
-        <v>1.019510530630493</v>
+        <v>0.9775329733034553</v>
       </c>
       <c r="F3">
-        <v>1.05119956134051</v>
+        <v>1.033968087095199</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040064036485619</v>
+        <v>1.058477268123615</v>
       </c>
       <c r="J3">
-        <v>1.023124330810712</v>
+        <v>0.9885764076332664</v>
       </c>
       <c r="K3">
-        <v>1.049678025853052</v>
+        <v>1.052554812038101</v>
       </c>
       <c r="L3">
-        <v>1.022161822076517</v>
+        <v>0.9884616309204812</v>
       </c>
       <c r="M3">
-        <v>1.053766416524224</v>
+        <v>1.044184032428746</v>
       </c>
       <c r="N3">
-        <v>1.011697610754436</v>
+        <v>0.9996774838616931</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019237761502197</v>
+        <v>0.9718685667347763</v>
       </c>
       <c r="D4">
-        <v>1.047547989523303</v>
+        <v>1.044771807230954</v>
       </c>
       <c r="E4">
-        <v>1.020338709891954</v>
+        <v>0.9814261144333539</v>
       </c>
       <c r="F4">
-        <v>1.051831198254204</v>
+        <v>1.037120182869145</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040181279457985</v>
+        <v>1.059429183589376</v>
       </c>
       <c r="J4">
-        <v>1.023850410904467</v>
+        <v>0.9920203183085835</v>
       </c>
       <c r="K4">
-        <v>1.050003097092457</v>
+        <v>1.054358313552162</v>
       </c>
       <c r="L4">
-        <v>1.022862936438564</v>
+        <v>0.9917540024590952</v>
       </c>
       <c r="M4">
-        <v>1.054275775879018</v>
+        <v>1.046790327421761</v>
       </c>
       <c r="N4">
-        <v>1.011944086716067</v>
+        <v>1.000873681887974</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019642698901204</v>
+        <v>0.9738191097633554</v>
       </c>
       <c r="D5">
-        <v>1.047735565734536</v>
+        <v>1.045736560420747</v>
       </c>
       <c r="E5">
-        <v>1.020686652641428</v>
+        <v>0.9830366410001729</v>
       </c>
       <c r="F5">
-        <v>1.052096160871901</v>
+        <v>1.038423230525678</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040229909726947</v>
+        <v>1.059818455460449</v>
       </c>
       <c r="J5">
-        <v>1.024155235782094</v>
+        <v>0.9934427147578621</v>
       </c>
       <c r="K5">
-        <v>1.050139073206841</v>
+        <v>1.055101062217711</v>
       </c>
       <c r="L5">
-        <v>1.023157332763208</v>
+        <v>0.9931143411143005</v>
       </c>
       <c r="M5">
-        <v>1.054489186778733</v>
+        <v>1.047865480045941</v>
       </c>
       <c r="N5">
-        <v>1.012047495136177</v>
+        <v>1.001367394730074</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019710669863488</v>
+        <v>0.9741446853447386</v>
       </c>
       <c r="D6">
-        <v>1.047767029906365</v>
+        <v>1.045897593635765</v>
       </c>
       <c r="E6">
-        <v>1.020745060788263</v>
+        <v>0.9833055644058289</v>
       </c>
       <c r="F6">
-        <v>1.052140615422295</v>
+        <v>1.038640749001515</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040238036330069</v>
+        <v>1.05988318504206</v>
       </c>
       <c r="J6">
-        <v>1.024206392785732</v>
+        <v>0.9936800902017209</v>
       </c>
       <c r="K6">
-        <v>1.050161864089723</v>
+        <v>1.055224882708627</v>
       </c>
       <c r="L6">
-        <v>1.023206742689343</v>
+        <v>0.9933413910826281</v>
       </c>
       <c r="M6">
-        <v>1.05452497698887</v>
+        <v>1.048044822202613</v>
       </c>
       <c r="N6">
-        <v>1.012064845594266</v>
+        <v>1.001449767160352</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019243173628108</v>
+        <v>0.9718947604650972</v>
       </c>
       <c r="D7">
-        <v>1.047550497982761</v>
+        <v>1.044784762542823</v>
       </c>
       <c r="E7">
-        <v>1.020343359992948</v>
+        <v>0.98144773518007</v>
       </c>
       <c r="F7">
-        <v>1.051834740965928</v>
+        <v>1.037137679848351</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04018193184657</v>
+        <v>1.059434427524181</v>
       </c>
       <c r="J7">
-        <v>1.023854485630316</v>
+        <v>0.9920394225199116</v>
       </c>
       <c r="K7">
-        <v>1.050004916699258</v>
+        <v>1.054368298175058</v>
       </c>
       <c r="L7">
-        <v>1.022866871554523</v>
+        <v>0.9917722710812108</v>
       </c>
       <c r="M7">
-        <v>1.054278630328966</v>
+        <v>1.046804773274373</v>
       </c>
       <c r="N7">
-        <v>1.011945469287842</v>
+        <v>1.000880314310309</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017286198161456</v>
+        <v>0.9621974569980957</v>
       </c>
       <c r="D8">
-        <v>1.046640989165053</v>
+        <v>1.039991173565575</v>
       </c>
       <c r="E8">
-        <v>1.018662402736702</v>
+        <v>0.9734562912356859</v>
       </c>
       <c r="F8">
-        <v>1.05055133157019</v>
+        <v>1.030665032752475</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039941834917569</v>
+        <v>1.057465198964449</v>
       </c>
       <c r="J8">
-        <v>1.0223799999954</v>
+        <v>0.9849620999250617</v>
       </c>
       <c r="K8">
-        <v>1.049343099061025</v>
+        <v>1.050655374086347</v>
       </c>
       <c r="L8">
-        <v>1.021443264300943</v>
+        <v>0.9850082370072015</v>
       </c>
       <c r="M8">
-        <v>1.053242796802427</v>
+        <v>1.041445049521689</v>
       </c>
       <c r="N8">
-        <v>1.011444708518428</v>
+        <v>0.9984209727362948</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013826264588717</v>
+        <v>0.9438552215439641</v>
       </c>
       <c r="D9">
-        <v>1.045021595611019</v>
+        <v>1.030963483641974</v>
       </c>
       <c r="E9">
-        <v>1.015692774431264</v>
+        <v>0.9584115489008731</v>
       </c>
       <c r="F9">
-        <v>1.048271242920713</v>
+        <v>1.01847407167289</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039497698904769</v>
+        <v>1.053619148037579</v>
       </c>
       <c r="J9">
-        <v>1.019767964847435</v>
+        <v>0.9715592274669229</v>
       </c>
       <c r="K9">
-        <v>1.048155021936845</v>
+        <v>1.043573409172871</v>
       </c>
       <c r="L9">
-        <v>1.018923051867951</v>
+        <v>0.9722174442550739</v>
       </c>
       <c r="M9">
-        <v>1.051394303177267</v>
+        <v>1.031274365578886</v>
       </c>
       <c r="N9">
-        <v>1.010555454847119</v>
+        <v>0.993753618764442</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011511446996195</v>
+        <v>0.9306179948289002</v>
       </c>
       <c r="D10">
-        <v>1.04393076380479</v>
+        <v>1.024506024365775</v>
       </c>
       <c r="E10">
-        <v>1.013707599035333</v>
+        <v>0.947612551107005</v>
       </c>
       <c r="F10">
-        <v>1.046738631390412</v>
+        <v>1.009744102489613</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039187461266105</v>
+        <v>1.050776709416418</v>
       </c>
       <c r="J10">
-        <v>1.018017003495174</v>
+        <v>0.9618830595037682</v>
       </c>
       <c r="K10">
-        <v>1.047348263961936</v>
+        <v>1.038446476471578</v>
       </c>
       <c r="L10">
-        <v>1.017234783392103</v>
+        <v>0.9629967977392208</v>
       </c>
       <c r="M10">
-        <v>1.050146295806834</v>
+        <v>1.023939625012541</v>
       </c>
       <c r="N10">
-        <v>1.009957907501216</v>
+        <v>0.9903787274300013</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01050705665331</v>
+        <v>0.9246026975785657</v>
       </c>
       <c r="D11">
-        <v>1.043455756055927</v>
+        <v>1.02159319765525</v>
       </c>
       <c r="E11">
-        <v>1.012846634293134</v>
+        <v>0.9427217922118242</v>
       </c>
       <c r="F11">
-        <v>1.04607199735782</v>
+        <v>1.005801564047245</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039049770195881</v>
+        <v>1.049473213222063</v>
       </c>
       <c r="J11">
-        <v>1.01725646676491</v>
+        <v>0.957487095699772</v>
       </c>
       <c r="K11">
-        <v>1.046995438176097</v>
+        <v>1.03611907193435</v>
       </c>
       <c r="L11">
-        <v>1.016501748339656</v>
+        <v>0.9588112458485545</v>
       </c>
       <c r="M11">
-        <v>1.049602159592727</v>
+        <v>1.020614894480156</v>
       </c>
       <c r="N11">
-        <v>1.009698021301186</v>
+        <v>0.9888445908883641</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010133662872713</v>
+        <v>0.9223213455278378</v>
       </c>
       <c r="D12">
-        <v>1.043278915581638</v>
+        <v>1.02049248530818</v>
       </c>
       <c r="E12">
-        <v>1.012526621115517</v>
+        <v>0.9408696771275455</v>
       </c>
       <c r="F12">
-        <v>1.045823926742409</v>
+        <v>1.00431082445625</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03899812130388</v>
+        <v>1.048977461841129</v>
       </c>
       <c r="J12">
-        <v>1.016973608760918</v>
+        <v>0.9558202467965389</v>
       </c>
       <c r="K12">
-        <v>1.046863857584019</v>
+        <v>1.035237338013232</v>
       </c>
       <c r="L12">
-        <v>1.016229159449954</v>
+        <v>0.9572247236941064</v>
       </c>
       <c r="M12">
-        <v>1.04939947951286</v>
+        <v>1.019355899278617</v>
       </c>
       <c r="N12">
-        <v>1.009601313963183</v>
+        <v>0.9882627816923504</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010213771665905</v>
+        <v>0.9228129081192249</v>
       </c>
       <c r="D13">
-        <v>1.043316866634549</v>
+        <v>1.02072946204534</v>
       </c>
       <c r="E13">
-        <v>1.012595274752927</v>
+        <v>0.941268623671638</v>
       </c>
       <c r="F13">
-        <v>1.045877159263782</v>
+        <v>1.004631816798747</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039009222988632</v>
+        <v>1.04908433735372</v>
       </c>
       <c r="J13">
-        <v>1.017034299193293</v>
+        <v>0.9561793830498645</v>
       </c>
       <c r="K13">
-        <v>1.046892105849604</v>
+        <v>1.035427271827039</v>
       </c>
       <c r="L13">
-        <v>1.016287644683016</v>
+        <v>0.957566527972092</v>
       </c>
       <c r="M13">
-        <v>1.049442980612042</v>
+        <v>1.019627075627872</v>
       </c>
       <c r="N13">
-        <v>1.009622065925039</v>
+        <v>0.9883881411538309</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010476198357099</v>
+        <v>0.9244151069445453</v>
       </c>
       <c r="D14">
-        <v>1.043441146558191</v>
+        <v>1.021502602725049</v>
       </c>
       <c r="E14">
-        <v>1.012820186278186</v>
+        <v>0.9425694395435671</v>
       </c>
       <c r="F14">
-        <v>1.046051501016558</v>
+        <v>1.005678887554911</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039045511170438</v>
+        <v>1.049432474445383</v>
       </c>
       <c r="J14">
-        <v>1.017233093031504</v>
+        <v>0.9573500259065068</v>
       </c>
       <c r="K14">
-        <v>1.04698457240358</v>
+        <v>1.036046545890688</v>
       </c>
       <c r="L14">
-        <v>1.016479222355317</v>
+        <v>0.9586807704004509</v>
       </c>
       <c r="M14">
-        <v>1.049585417502412</v>
+        <v>1.020511326588827</v>
       </c>
       <c r="N14">
-        <v>1.009690031004996</v>
+        <v>0.9887967488483588</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01063784562542</v>
+        <v>0.9253959033740903</v>
       </c>
       <c r="D15">
-        <v>1.0435176663169</v>
+        <v>1.02197643528659</v>
       </c>
       <c r="E15">
-        <v>1.012958733329901</v>
+        <v>0.9433661113968324</v>
       </c>
       <c r="F15">
-        <v>1.046158858633459</v>
+        <v>1.006320475569294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039067802689712</v>
+        <v>1.049645418517645</v>
       </c>
       <c r="J15">
-        <v>1.017355528474307</v>
+        <v>0.9580666955333298</v>
       </c>
       <c r="K15">
-        <v>1.047041474467393</v>
+        <v>1.036425782540882</v>
       </c>
       <c r="L15">
-        <v>1.016597218816628</v>
+        <v>0.9593629836943572</v>
       </c>
       <c r="M15">
-        <v>1.049673102830412</v>
+        <v>1.021052902504</v>
       </c>
       <c r="N15">
-        <v>1.009731883409186</v>
+        <v>0.989046887194727</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011578060915385</v>
+        <v>0.9310108750910314</v>
       </c>
       <c r="D16">
-        <v>1.043962232222477</v>
+        <v>1.024696779011568</v>
       </c>
       <c r="E16">
-        <v>1.01376470898827</v>
+        <v>0.9479323467581923</v>
       </c>
       <c r="F16">
-        <v>1.046782810265198</v>
+        <v>1.010002176831419</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039196528653276</v>
+        <v>1.050861632571523</v>
       </c>
       <c r="J16">
-        <v>1.018067427568801</v>
+        <v>0.9621702137497793</v>
       </c>
       <c r="K16">
-        <v>1.047371606193176</v>
+        <v>1.038598585235923</v>
       </c>
       <c r="L16">
-        <v>1.017283389788193</v>
+        <v>0.9632702808291732</v>
       </c>
       <c r="M16">
-        <v>1.050182329381635</v>
+        <v>1.024157002789436</v>
       </c>
       <c r="N16">
-        <v>1.009975131003732</v>
+        <v>0.9904789250194781</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012167275433644</v>
+        <v>0.9344541772694284</v>
       </c>
       <c r="D17">
-        <v>1.044240381570786</v>
+        <v>1.026371114016313</v>
       </c>
       <c r="E17">
-        <v>1.014269904605783</v>
+        <v>0.9507370079411563</v>
       </c>
       <c r="F17">
-        <v>1.047173393317201</v>
+        <v>1.012266858217665</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039276376473276</v>
+        <v>1.051604631432116</v>
       </c>
       <c r="J17">
-        <v>1.018513347016154</v>
+        <v>0.9646870514506171</v>
       </c>
       <c r="K17">
-        <v>1.047577753313696</v>
+        <v>1.039932038819894</v>
       </c>
       <c r="L17">
-        <v>1.017713266050916</v>
+        <v>0.9656676866412274</v>
       </c>
       <c r="M17">
-        <v>1.05050075108138</v>
+        <v>1.026063170035703</v>
       </c>
       <c r="N17">
-        <v>1.010127405952957</v>
+        <v>0.9913570357320214</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012510756246865</v>
+        <v>0.9364355735867105</v>
       </c>
       <c r="D18">
-        <v>1.044402363748355</v>
+        <v>1.02733655521767</v>
       </c>
       <c r="E18">
-        <v>1.014564444860141</v>
+        <v>0.9523524407333732</v>
       </c>
       <c r="F18">
-        <v>1.047400924176416</v>
+        <v>1.013572279598171</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039322626546065</v>
+        <v>1.052031043556014</v>
       </c>
       <c r="J18">
-        <v>1.018773217121003</v>
+        <v>0.966135418077851</v>
       </c>
       <c r="K18">
-        <v>1.047697658327908</v>
+        <v>1.040699537113087</v>
       </c>
       <c r="L18">
-        <v>1.017963812686997</v>
+        <v>0.9670476468258836</v>
       </c>
       <c r="M18">
-        <v>1.050686120256254</v>
+        <v>1.027160779290891</v>
       </c>
       <c r="N18">
-        <v>1.010216115095047</v>
+        <v>0.9918622764823805</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012627841010677</v>
+        <v>0.9371067188054711</v>
       </c>
       <c r="D19">
-        <v>1.044457551792439</v>
+        <v>1.027663885917844</v>
       </c>
       <c r="E19">
-        <v>1.014664853317975</v>
+        <v>0.9528998784303986</v>
       </c>
       <c r="F19">
-        <v>1.047478457248658</v>
+        <v>1.014014814624905</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039338341703526</v>
+        <v>1.052175275942578</v>
       </c>
       <c r="J19">
-        <v>1.018861787772465</v>
+        <v>0.966626023750021</v>
       </c>
       <c r="K19">
-        <v>1.047738485670091</v>
+        <v>1.040959521177094</v>
       </c>
       <c r="L19">
-        <v>1.018049210073996</v>
+        <v>0.9675151353549352</v>
       </c>
       <c r="M19">
-        <v>1.050749265202418</v>
+        <v>1.02753267077159</v>
       </c>
       <c r="N19">
-        <v>1.010246343981831</v>
+        <v>0.9920334012232476</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012104078843182</v>
+        <v>0.9340875685920913</v>
       </c>
       <c r="D20">
-        <v>1.044210565428016</v>
+        <v>1.026192637474262</v>
       </c>
       <c r="E20">
-        <v>1.01421571557795</v>
+        <v>0.9504382343245696</v>
       </c>
       <c r="F20">
-        <v>1.047131517423245</v>
+        <v>1.012025498583452</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039267843051606</v>
+        <v>1.051525639725991</v>
       </c>
       <c r="J20">
-        <v>1.018465527622654</v>
+        <v>0.9644190728606784</v>
       </c>
       <c r="K20">
-        <v>1.047555670550883</v>
+        <v>1.039790042934358</v>
       </c>
       <c r="L20">
-        <v>1.017667164393868</v>
+        <v>0.9654123907346821</v>
       </c>
       <c r="M20">
-        <v>1.050466624779354</v>
+        <v>1.025860139344296</v>
       </c>
       <c r="N20">
-        <v>1.010111079712053</v>
+        <v>0.9912635482304342</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010398929102922</v>
+        <v>0.9239446354766571</v>
       </c>
       <c r="D21">
-        <v>1.04340456030244</v>
+        <v>1.021275460496774</v>
       </c>
       <c r="E21">
-        <v>1.012753961360213</v>
+        <v>0.9421873888737641</v>
       </c>
       <c r="F21">
-        <v>1.046000174237528</v>
+        <v>1.005371293997095</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039034839127213</v>
+        <v>1.049330281921492</v>
       </c>
       <c r="J21">
-        <v>1.017174563212489</v>
+        <v>0.9570062655672079</v>
       </c>
       <c r="K21">
-        <v>1.046957357814865</v>
+        <v>1.035864670297066</v>
       </c>
       <c r="L21">
-        <v>1.016422816029889</v>
+        <v>0.9583535569807479</v>
       </c>
       <c r="M21">
-        <v>1.049543488961737</v>
+        <v>1.020251615128023</v>
       </c>
       <c r="N21">
-        <v>1.009670021804197</v>
+        <v>0.9886767632693174</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.009324986534748</v>
+        <v>0.9172927476374393</v>
       </c>
       <c r="D22">
-        <v>1.042895470081477</v>
+        <v>1.018074581201301</v>
       </c>
       <c r="E22">
-        <v>1.01183366547138</v>
+        <v>0.9367926006692563</v>
       </c>
       <c r="F22">
-        <v>1.045286231673529</v>
+        <v>1.001034206555845</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038885422540334</v>
+        <v>1.047882618950748</v>
       </c>
       <c r="J22">
-        <v>1.016360791960544</v>
+        <v>0.9521470411210626</v>
       </c>
       <c r="K22">
-        <v>1.04657813489223</v>
+        <v>1.033296284036895</v>
       </c>
       <c r="L22">
-        <v>1.01563866541253</v>
+        <v>0.9537295644278043</v>
       </c>
       <c r="M22">
-        <v>1.048959814796082</v>
+        <v>1.016585203415574</v>
       </c>
       <c r="N22">
-        <v>1.009391703231763</v>
+        <v>0.9869805166714815</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009894481978082</v>
+        <v>0.9208467182900631</v>
       </c>
       <c r="D23">
-        <v>1.043165568712072</v>
+        <v>1.019782234037825</v>
       </c>
       <c r="E23">
-        <v>1.012321650829092</v>
+        <v>0.9396733111064143</v>
       </c>
       <c r="F23">
-        <v>1.045664955328275</v>
+        <v>1.003348614670257</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038964907704483</v>
+        <v>1.048656676955619</v>
       </c>
       <c r="J23">
-        <v>1.016792387823412</v>
+        <v>0.9547429506996021</v>
       </c>
       <c r="K23">
-        <v>1.046779456441268</v>
+        <v>1.03466774928783</v>
       </c>
       <c r="L23">
-        <v>1.016054529178212</v>
+        <v>0.9561994996986649</v>
       </c>
       <c r="M23">
-        <v>1.049269541284565</v>
+        <v>1.018542744558387</v>
       </c>
       <c r="N23">
-        <v>1.009539341429055</v>
+        <v>0.987886730896909</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012132635274322</v>
+        <v>0.9342533064576394</v>
       </c>
       <c r="D24">
-        <v>1.044224038856053</v>
+        <v>1.026273317769872</v>
       </c>
       <c r="E24">
-        <v>1.014240201674623</v>
+        <v>0.9505733003091734</v>
       </c>
       <c r="F24">
-        <v>1.047150440232652</v>
+        <v>1.012134606461501</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039271699938314</v>
+        <v>1.051561354158304</v>
       </c>
       <c r="J24">
-        <v>1.018487135850375</v>
+        <v>0.9645402213889239</v>
       </c>
       <c r="K24">
-        <v>1.047565649842901</v>
+        <v>1.039854236458462</v>
       </c>
       <c r="L24">
-        <v>1.017687996344593</v>
+        <v>0.9655278046365388</v>
       </c>
       <c r="M24">
-        <v>1.050482046101649</v>
+        <v>1.025951924011346</v>
       </c>
       <c r="N24">
-        <v>1.010118457178355</v>
+        <v>0.9913058125986889</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014722150259201</v>
+        <v>0.9487615973111675</v>
       </c>
       <c r="D25">
-        <v>1.045442228449873</v>
+        <v>1.033370866524852</v>
       </c>
       <c r="E25">
-        <v>1.016461425609722</v>
+        <v>0.9624267304887568</v>
       </c>
       <c r="F25">
-        <v>1.048862907176831</v>
+        <v>1.021725983353336</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039615012749204</v>
+        <v>1.054660469465497</v>
       </c>
       <c r="J25">
-        <v>1.020444907460198</v>
+        <v>0.9751455525687566</v>
       </c>
       <c r="K25">
-        <v>1.048464760119307</v>
+        <v>1.045472323773623</v>
       </c>
       <c r="L25">
-        <v>1.01957599711152</v>
+        <v>0.975637742147505</v>
       </c>
       <c r="M25">
-        <v>1.051874941526478</v>
+        <v>1.033996139821431</v>
       </c>
       <c r="N25">
-        <v>1.010786170805605</v>
+        <v>0.9950035133838537</v>
       </c>
     </row>
   </sheetData>
